--- a/Web4/App_Data/Reports/tests - Copy.xlsx
+++ b/Web4/App_Data/Reports/tests - Copy.xlsx
@@ -5,18 +5,24 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LMCom\rew\Web4\App_Data\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Pz-w8virtual\d\LMCom\rew\Web4\App_Data\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="738" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="dataTests" sheetId="1" r:id="rId1"/>
+    <sheet name="dataTests" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="dataSkills" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="dataIntpsIpDist" sheetId="13" state="hidden" r:id="rId3"/>
     <sheet name="dataIntpsIp2" sheetId="14" state="hidden" r:id="rId4"/>
     <sheet name="dataIntps2" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="Results by Date" sheetId="8" r:id="rId6"/>
+    <sheet name="Results by Department" sheetId="6" r:id="rId7"/>
+    <sheet name="Skill scores by Department" sheetId="10" r:id="rId8"/>
+    <sheet name="Skill scores by Date" sheetId="9" r:id="rId9"/>
+    <sheet name="IP Addresses" sheetId="12" r:id="rId10"/>
+    <sheet name="Interruptions" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="all" localSheetId="4">dataIntps2!$A$1:$AB$2</definedName>
@@ -26,11 +32,18 @@
     <definedName name="all" localSheetId="0">dataTests!$A$1:$AK$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="17" r:id="rId12"/>
+    <pivotCache cacheId="29" r:id="rId13"/>
+    <pivotCache cacheId="38" r:id="rId14"/>
+    <pivotCache cacheId="51" r:id="rId15"/>
+    <pivotCache cacheId="60" r:id="rId16"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="111">
   <si>
     <t>testId</t>
   </si>
@@ -237,20 +250,176 @@
   </si>
   <si>
     <t>00:00:05</t>
+  </si>
+  <si>
+    <t>Filter:</t>
+  </si>
+  <si>
+    <t>Tested language</t>
+  </si>
+  <si>
+    <t>Licence ID</t>
+  </si>
+  <si>
+    <t>Main department</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Skill scores grouped by Date</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Subdepartment</t>
+  </si>
+  <si>
+    <t>Test Results:</t>
+  </si>
+  <si>
+    <t>Skill scores grouped by Department</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Results grouped by Department</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>Results grouped by Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Interrupted tests</t>
+  </si>
+  <si>
+    <t>Number and duration of interruptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elapsed </t>
+  </si>
+  <si>
+    <t>(Vše)</t>
+  </si>
+  <si>
+    <t>Total number</t>
+  </si>
+  <si>
+    <t>You can group the test results of the students by date here.</t>
+  </si>
+  <si>
+    <t>Use the available filters to display the required students results.</t>
+  </si>
+  <si>
+    <t>You can group the test results of the students by departments here.</t>
+  </si>
+  <si>
+    <t>You can group the skill scores of the students by date here.</t>
+  </si>
+  <si>
+    <t>You can group the skill scores of the students by departments here.</t>
+  </si>
+  <si>
+    <t>In Total</t>
+  </si>
+  <si>
+    <t>Celkem Number</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Celkem Avg (%)</t>
+  </si>
+  <si>
+    <t>Avg (%)</t>
+  </si>
+  <si>
+    <t>Use the available filters to display the required tests.</t>
+  </si>
+  <si>
+    <t>Tests with 2 or more IP addresses:</t>
+  </si>
+  <si>
+    <t>Tests by IP addresses:</t>
+  </si>
+  <si>
+    <t>All interrupted tests are displayed here.</t>
+  </si>
+  <si>
+    <t>(empty) Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests grouped by IP addresses  </t>
+  </si>
+  <si>
+    <t>You can group the tests by IP addresses here.</t>
+  </si>
+  <si>
+    <t>Select test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0\ &quot;%&quot;"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -282,19 +451,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -305,6 +530,2156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42083.709063541668" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all" sheet="dataTests"/>
+  </cacheSource>
+  <cacheFields count="37">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="email" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="firstName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="lastName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="14"/>
+    </cacheField>
+    <cacheField name="licenceId" numFmtId="0">
+      <sharedItems count="7">
+        <s v="14 (03/12/2015)"/>
+        <s v="14 (03. 12. 2015)" u="1"/>
+        <s v="58 (03/12/2015)" u="1"/>
+        <s v="60 (03/12/2015)" u="1"/>
+        <s v="89 (03/12/2015)" u="1"/>
+        <s v="91 (03/12/2015)" u="1"/>
+        <s v="90 (03/12/2015)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
+        <n v="0"/>
+      </sharedItems>
+      <fieldGroup base="6">
+        <rangePr autoStart="0" autoEnd="0" startNum="0" endNum="100" groupInterval="10"/>
+        <groupItems count="12">
+          <s v="&lt;0"/>
+          <s v="0-9"/>
+          <s v="10-19"/>
+          <s v="20-29"/>
+          <s v="30-39"/>
+          <s v="40-49"/>
+          <s v="50-59"/>
+          <s v="60-69"/>
+          <s v="70-79"/>
+          <s v="80-89"/>
+          <s v="90-100"/>
+          <s v="&gt;100"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="scoreInterval" numFmtId="0">
+      <sharedItems count="3">
+        <s v="failed (&lt;60)"/>
+        <s v="excellent (&gt;90)" u="1"/>
+        <s v="insufficient (60-74)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodId" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodTitle" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodLine" numFmtId="165">
+      <sharedItems count="3">
+        <s v="English"/>
+        <s v="German" u="1"/>
+        <s v="Russian" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodLevel" numFmtId="165">
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+        <m/>
+        <s v="A1" u="1"/>
+        <s v="B1" u="1"/>
+        <s v="A2" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="start" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:10:56" maxDate="2015-03-12T10:10:56"/>
+    </cacheField>
+    <cacheField name="startTime" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:10:56" maxDate="2015-03-12T10:10:56"/>
+    </cacheField>
+    <cacheField name="startYear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015"/>
+    </cacheField>
+    <cacheField name="startQuarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="startQuarterStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="startMonth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="startMonthStr" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="startWeek" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1900-01-10T00:00:00" maxDate="1900-01-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="end" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:11:06" maxDate="2015-03-12T10:11:06"/>
+    </cacheField>
+    <cacheField name="endTime" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:11:06" maxDate="2015-03-12T10:11:06"/>
+    </cacheField>
+    <cacheField name="endYear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015" count="1">
+        <n v="2015"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endQuarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="endQuarterStr" numFmtId="0">
+      <sharedItems count="1">
+        <s v="1qrt"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endMonth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="endMonthStr" numFmtId="0">
+      <sharedItems count="1">
+        <s v="March"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endWeek" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="11"/>
+    </cacheField>
+    <cacheField name="elapsed" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:05" maxDate="1899-12-30T00:00:05"/>
+    </cacheField>
+    <cacheField name="elapsedStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedHour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedMinute" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="5"/>
+    </cacheField>
+    <cacheField name="elapsedTotalSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="5"/>
+    </cacheField>
+    <cacheField name="depLev1" numFmtId="0">
+      <sharedItems count="6">
+        <s v="@parent"/>
+        <s v="Vyvoj" u="1"/>
+        <s v="Obchodni" u="1"/>
+        <s v="Testeri" u="1"/>
+        <s v="rocnik 1" u="1"/>
+        <s v="New Item 1" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="@parent"/>
+        <s v="xxx" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev3" numFmtId="0">
+      <sharedItems count="1">
+        <s v="@parent"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42083.709064351853" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all" sheet="dataIntpsIpDist"/>
+  </cacheSource>
+  <cacheFields count="28">
+    <cacheField name="testId" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ipAddress" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodLine" numFmtId="0">
+      <sharedItems count="4">
+        <s v="English"/>
+        <s v="German" u="1"/>
+        <s v="Russian" u="1"/>
+        <s v="prodLine" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodLevel" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="licenceId" numFmtId="0">
+      <sharedItems count="7">
+        <s v="14 (03/12/2015)"/>
+        <s v="58 (03/12/2015)" u="1"/>
+        <s v="60 (03/12/2015)" u="1"/>
+        <s v="licenceId" u="1"/>
+        <s v="89 (03/12/2015)" u="1"/>
+        <s v="91 (03/12/2015)" u="1"/>
+        <s v="90 (03/12/2015)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="elapsed" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00"/>
+    </cacheField>
+    <cacheField name="ip1" numFmtId="0">
+      <sharedItems count="4">
+        <s v="192"/>
+        <s v="89" u="1"/>
+        <s v="ip1" u="1"/>
+        <s v="90" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ip2" numFmtId="0">
+      <sharedItems count="4">
+        <s v="168"/>
+        <s v="181" u="1"/>
+        <s v="24" u="1"/>
+        <s v="ip2" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ip3" numFmtId="0">
+      <sharedItems count="4">
+        <s v="0"/>
+        <s v="225" u="1"/>
+        <s v="ip3" u="1"/>
+        <s v="115" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ip4" numFmtId="0">
+      <sharedItems count="7">
+        <s v="163"/>
+        <s v="177" u="1"/>
+        <s v="159" u="1"/>
+        <s v="166" u="1"/>
+        <s v="82" u="1"/>
+        <s v="ip4" u="1"/>
+        <s v="160" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodTitle" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="end" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:11:06" maxDate="2015-03-12T10:11:06"/>
+    </cacheField>
+    <cacheField name="endTime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="42075.424375000002" maxValue="42075.424375000002"/>
+    </cacheField>
+    <cacheField name="endYear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015" count="1">
+        <n v="2015"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endQuarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="endQuarterStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endMonth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="endMonthStr" numFmtId="0">
+      <sharedItems count="2">
+        <s v="March"/>
+        <s v="endMonthStr" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endWeek" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1900-01-10T00:00:00" maxDate="1900-01-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="elapsedStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedHour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedMinute" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedTotalSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="depLev1" numFmtId="0">
+      <sharedItems count="5">
+        <s v="@parent"/>
+        <s v="Vyvoj" u="1"/>
+        <s v="Obchodni" u="1"/>
+        <s v="Testeri" u="1"/>
+        <s v="depLev1" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="@parent"/>
+        <s v="depLev2" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42083.709064814815" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all" sheet="dataIntpsIp2"/>
+  </cacheSource>
+  <cacheFields count="28">
+    <cacheField name="testId" numFmtId="0">
+      <sharedItems count="2">
+        <s v="testId"/>
+        <s v="rjeliga@langmaster.cz (Radek Jeliga): eTestMe Deutsch Test (standard) (92)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ipAddress" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodLine" numFmtId="0">
+      <sharedItems count="2">
+        <s v="prodLine"/>
+        <s v="German" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodLevel" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="licenceId" numFmtId="0">
+      <sharedItems count="2">
+        <s v="licenceId"/>
+        <s v="90 (03/12/2015)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="elapsed" numFmtId="46">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodTitle" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="end" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endTime" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endYear" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015" count="2">
+        <s v="endYear"/>
+        <n v="2015" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endQuarter" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endQuarterStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endMonth" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endMonthStr" numFmtId="0">
+      <sharedItems count="2">
+        <s v="endMonthStr"/>
+        <s v="March" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endWeek" numFmtId="46">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedHour" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedMinute" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedSecond" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedTotalSecond" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="depLev1" numFmtId="0">
+      <sharedItems count="2">
+        <s v="depLev1"/>
+        <s v="Obchodni" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="depLev2"/>
+        <s v="@parent" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42083.709065393516" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all" sheet="dataSkills"/>
+  </cacheSource>
+  <cacheFields count="37">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodTitle" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="skill" numFmtId="0">
+      <sharedItems count="5">
+        <s v="UseLanguage"/>
+        <s v="Reading"/>
+        <s v="Listening"/>
+        <s v="Speaking" u="1"/>
+        <s v="Writing" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodLine" numFmtId="0">
+      <sharedItems count="3">
+        <s v="English"/>
+        <s v="German" u="1"/>
+        <s v="Russian" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodLevel" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+        <m/>
+        <s v="A1" u="1"/>
+        <s v="B1" u="1"/>
+        <s v="A2" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="licenceId" numFmtId="0">
+      <sharedItems count="7">
+        <s v="14 (03/12/2015)"/>
+        <s v="14 (03. 12. 2015)" u="1"/>
+        <s v="58 (03/12/2015)" u="1"/>
+        <s v="60 (03/12/2015)" u="1"/>
+        <s v="89 (03/12/2015)" u="1"/>
+        <s v="91 (03/12/2015)" u="1"/>
+        <s v="90 (03/12/2015)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="email" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="firstName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="lastName" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="testId" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="14"/>
+    </cacheField>
+    <cacheField name="score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
+        <n v="0"/>
+      </sharedItems>
+      <fieldGroup base="10">
+        <rangePr autoStart="0" autoEnd="0" startNum="0" endNum="100" groupInterval="10"/>
+        <groupItems count="12">
+          <s v="&lt;0"/>
+          <s v="0-9"/>
+          <s v="10-19"/>
+          <s v="20-29"/>
+          <s v="30-39"/>
+          <s v="40-49"/>
+          <s v="50-59"/>
+          <s v="60-69"/>
+          <s v="70-79"/>
+          <s v="80-89"/>
+          <s v="90-100"/>
+          <s v="&gt;100"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="prodId" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="start" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:10:56" maxDate="2015-03-12T10:11:03"/>
+    </cacheField>
+    <cacheField name="startTime" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:10:56" maxDate="2015-03-12T10:11:03"/>
+    </cacheField>
+    <cacheField name="startYear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015"/>
+    </cacheField>
+    <cacheField name="startQuarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="startQuarterStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="startMonth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="startMonthStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="startWeek" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1900-01-10T00:00:00" maxDate="1900-01-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="end" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:11:00" maxDate="2015-03-12T10:11:06"/>
+    </cacheField>
+    <cacheField name="endTime" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2015-03-12T10:11:00" maxDate="2015-03-12T10:11:06"/>
+    </cacheField>
+    <cacheField name="endYear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015" count="1">
+        <n v="2015"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endQuarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="endQuarterStr" numFmtId="0">
+      <sharedItems count="1">
+        <s v="1qrt"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endMonth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="endMonthStr" numFmtId="0">
+      <sharedItems count="1">
+        <s v="March"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endWeek" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="11"/>
+    </cacheField>
+    <cacheField name="elapsed" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:01" maxDate="1899-12-30T00:00:02"/>
+    </cacheField>
+    <cacheField name="elapsedStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedHour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedMinute" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="elapsedSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="elapsedTotalSecond" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="depLev1" numFmtId="0">
+      <sharedItems count="5">
+        <s v="@parent"/>
+        <s v="Vyvoj" u="1"/>
+        <s v="Obchodni" u="1"/>
+        <s v="Testeri" u="1"/>
+        <s v="New Item 1" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="@parent"/>
+        <s v="xxx" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev3" numFmtId="0">
+      <sharedItems count="1">
+        <s v="@parent"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42083.709066319447" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all" sheet="dataIntps2"/>
+  </cacheSource>
+  <cacheFields count="28">
+    <cacheField name="testId" numFmtId="0">
+      <sharedItems count="3">
+        <s v="testId"/>
+        <s v="test6@langmaster.cz (T6 Test6): eTestMe English Tests (standard) (91)" u="1"/>
+        <s v="rjeliga@langmaster.cz (Radek Jeliga): eTestMe Deutsch Test (standard) (92)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ipAddress" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodLine" numFmtId="0">
+      <sharedItems count="3">
+        <s v="prodLine"/>
+        <s v="German" u="1"/>
+        <s v="English" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prodLevel" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="licenceId" numFmtId="0">
+      <sharedItems count="3">
+        <s v="licenceId"/>
+        <s v="89 (03/12/2015)" u="1"/>
+        <s v="90 (03/12/2015)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="elapsed" numFmtId="46">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ip4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prodTitle" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="end" numFmtId="165">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endTime" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endYear" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2015" count="2">
+        <s v="endYear"/>
+        <n v="2015" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endQuarter" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endQuarterStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endMonth" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="endMonthStr" numFmtId="0">
+      <sharedItems count="2">
+        <s v="endMonthStr"/>
+        <s v="March" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="endWeek" numFmtId="46">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedStr" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedHour" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedMinute" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedSecond" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="elapsedTotalSecond" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="depLev1" numFmtId="0">
+      <sharedItems count="3">
+        <s v="depLev1"/>
+        <s v="Obchodni" u="1"/>
+        <s v="Testeri" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="depLev2"/>
+        <s v="@parent" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="depLev3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <s v="pzika@langmaster.cz (Pavel Zika)"/>
+    <s v="pzika@langmaster.cz"/>
+    <s v="Pavel"/>
+    <s v="Zika"/>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="/skrivanek/prods/etestme-std/english/a1/|14"/>
+    <s v="eTestMe English Test A1 (standard)"/>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2015-03-12T10:10:56"/>
+    <d v="2015-03-12T10:10:56"/>
+    <n v="2015"/>
+    <n v="1"/>
+    <s v="1qrt"/>
+    <n v="3"/>
+    <s v="March"/>
+    <d v="1900-01-10T00:00:00"/>
+    <d v="2015-03-12T10:11:06"/>
+    <d v="2015-03-12T10:11:06"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:00:05"/>
+    <s v="00:00:05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <s v="pzika@langmaster.cz (Pavel Zika): eTestMe English Test A1 (standard) (14)"/>
+    <s v="192.168.0.163"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <d v="1899-12-30T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="pzika@langmaster.cz (Pavel Zika)"/>
+    <s v="eTestMe English Test A1 (standard)"/>
+    <d v="2015-03-12T10:11:06"/>
+    <n v="42075.424375000002"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="1qrt"/>
+    <n v="3"/>
+    <x v="0"/>
+    <d v="1900-01-10T00:00:00"/>
+    <s v="00:00:00"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="@parent"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <x v="0"/>
+    <s v="ipAddress"/>
+    <x v="0"/>
+    <s v="prodLevel"/>
+    <x v="0"/>
+    <s v="elapsed"/>
+    <s v="ip1"/>
+    <s v="ip2"/>
+    <s v="ip3"/>
+    <s v="ip4"/>
+    <s v="name"/>
+    <s v="prodTitle"/>
+    <s v="end"/>
+    <s v="endTime"/>
+    <x v="0"/>
+    <s v="endQuarter"/>
+    <s v="endQuarterStr"/>
+    <s v="endMonth"/>
+    <x v="0"/>
+    <s v="endWeek"/>
+    <s v="elapsedStr"/>
+    <s v="elapsedHour"/>
+    <s v="elapsedMinute"/>
+    <s v="elapsedSecond"/>
+    <s v="elapsedTotalSecond"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="depLev3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <s v="pzika@langmaster.cz (Pavel Zika)"/>
+    <s v="eTestMe English Test A1 (standard)"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="pzika@langmaster.cz"/>
+    <s v="Pavel"/>
+    <s v="Zika"/>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="/skrivanek/prods/etestme-std/english/a1/|14"/>
+    <d v="2015-03-12T10:10:56"/>
+    <d v="2015-03-12T10:10:56"/>
+    <n v="2015"/>
+    <n v="1"/>
+    <s v="1qrt"/>
+    <n v="3"/>
+    <s v="March"/>
+    <d v="1900-01-10T00:00:00"/>
+    <d v="2015-03-12T10:11:00"/>
+    <d v="2015-03-12T10:11:00"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:00:02"/>
+    <s v="00:00:02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="pzika@langmaster.cz (Pavel Zika)"/>
+    <s v="eTestMe English Test A1 (standard)"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="pzika@langmaster.cz"/>
+    <s v="Pavel"/>
+    <s v="Zika"/>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="/skrivanek/prods/etestme-std/english/a1/|14"/>
+    <d v="2015-03-12T10:11:00"/>
+    <d v="2015-03-12T10:11:00"/>
+    <n v="2015"/>
+    <n v="1"/>
+    <s v="1qrt"/>
+    <n v="3"/>
+    <s v="March"/>
+    <d v="1900-01-10T00:00:00"/>
+    <d v="2015-03-12T10:11:03"/>
+    <d v="2015-03-12T10:11:03"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:00:02"/>
+    <s v="00:00:02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="pzika@langmaster.cz (Pavel Zika)"/>
+    <s v="eTestMe English Test A1 (standard)"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="pzika@langmaster.cz"/>
+    <s v="Pavel"/>
+    <s v="Zika"/>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="/skrivanek/prods/etestme-std/english/a1/|14"/>
+    <d v="2015-03-12T10:11:03"/>
+    <d v="2015-03-12T10:11:03"/>
+    <n v="2015"/>
+    <n v="1"/>
+    <s v="1qrt"/>
+    <n v="3"/>
+    <s v="March"/>
+    <d v="1900-01-10T00:00:00"/>
+    <d v="2015-03-12T10:11:06"/>
+    <d v="2015-03-12T10:11:06"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="11"/>
+    <d v="1899-12-30T00:00:01"/>
+    <s v="00:00:01"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <x v="0"/>
+    <s v="ipAddress"/>
+    <x v="0"/>
+    <s v="prodLevel"/>
+    <x v="0"/>
+    <s v="elapsed"/>
+    <s v="ip1"/>
+    <s v="ip2"/>
+    <s v="ip3"/>
+    <s v="ip4"/>
+    <s v="name"/>
+    <s v="prodTitle"/>
+    <s v="end"/>
+    <s v="endTime"/>
+    <x v="0"/>
+    <s v="endQuarter"/>
+    <s v="endQuarterStr"/>
+    <s v="endMonth"/>
+    <x v="0"/>
+    <s v="endWeek"/>
+    <s v="elapsedStr"/>
+    <s v="elapsedHour"/>
+    <s v="elapsedMinute"/>
+    <s v="elapsedSecond"/>
+    <s v="elapsedTotalSecond"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="depLev3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Total number" updatedVersion="5" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" customListSort="0">
+  <location ref="B12:E18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="5" colPageCount="1"/>
+  <pivotFields count="37">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalCaption="? Total" showAll="0">
+      <items count="5">
+        <item n="(empty)" x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Main department" axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Department" axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Subdepartment" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="22"/>
+    <field x="24"/>
+    <field x="26"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="11"/>
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="5">
+    <pageField fld="10" hier="-1"/>
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="34" hier="-1"/>
+    <pageField fld="35" hier="-1"/>
+    <pageField fld="36" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name=" " fld="4" subtotal="count" baseField="21" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Total number" updatedVersion="5" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" customListSort="0">
+  <location ref="B12:E18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="5" colPageCount="1"/>
+  <pivotFields count="37">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalCaption="? Total" showAll="0">
+      <items count="5">
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item n="(empty)" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField name="Year" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Quarter" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="34"/>
+    <field x="35"/>
+    <field x="36"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="11"/>
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="5">
+    <pageField fld="10" hier="-1"/>
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="22" hier="-1"/>
+    <pageField fld="24" hier="-1"/>
+    <pageField fld="26" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="  " fld="4" subtotal="count" baseField="34" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="In Total" updatedVersion="5" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" customListSort="0">
+  <location ref="B13:J18" firstHeaderRow="0" firstDataRow="2" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+  <pivotFields count="37">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Skill" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Level" axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField name="Year" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Quarter" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Main department" axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Department" axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Subdepartment" axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="34"/>
+    <field x="35"/>
+    <field x="36"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="6">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="22" hier="-1"/>
+    <pageField fld="24" hier="-1"/>
+    <pageField fld="26" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Avg (%)" fld="10" subtotal="average" baseField="33" baseItem="0" numFmtId="9"/>
+    <dataField name="Number" fld="9" subtotal="count" baseField="33" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="In Total" updatedVersion="5" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" customListSort="0">
+  <location ref="B13:J18" firstHeaderRow="0" firstDataRow="2" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+  <pivotFields count="37">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Skill" axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Level" axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Main department" axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Department" axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Subdepartment" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="22"/>
+    <field x="24"/>
+    <field x="26"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="6">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="34" hier="-1"/>
+    <pageField fld="35" hier="-1"/>
+    <pageField fld="36" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Avg (%)" fld="10" subtotal="average" baseField="22" baseItem="0" numFmtId="9"/>
+    <dataField name="Number" fld="9" subtotal="count" baseField="22" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Total number" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Select test">
+  <location ref="F13:G15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+  <pivotFields count="28">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Year" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Main department" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Department" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="6">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="25" hier="-1"/>
+    <pageField fld="26" hier="-1"/>
+    <pageField fld="14" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Number" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Total number" updatedVersion="5" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" customListSort="0">
+  <location ref="B13:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+  <pivotFields count="28">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item m="1" x="2"/>
+        <item m="1" x="6"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField name="Year" axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="endMonth" showAll="0"/>
+    <pivotField name="Month" axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Main department" axis="axisPage" showAll="0">
+      <items count="6">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Department" axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Subdepartment" showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="6"/>
+    <field x="7"/>
+    <field x="8"/>
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="6">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="25" hier="-1"/>
+    <pageField fld="26" hier="-1"/>
+    <pageField fld="14" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Number" fld="0" subtotal="count" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="In Total" updatedVersion="5" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" customListSort="0">
+  <location ref="B13:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+  <pivotFields count="28">
+    <pivotField axis="axisRow" dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Tested language" axis="axisPage" showAll="0">
+      <items count="4">
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField name="Licence ID" axis="axisPage" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField name="Year" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Month" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Main department" axis="axisPage" showAll="0">
+      <items count="4">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Department" axis="axisPage" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Subdepartment" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="6">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="25" hier="-1"/>
+    <pageField fld="26" hier="-1"/>
+    <pageField fld="14" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Num" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Elapsed " fld="5" baseField="0" baseItem="0" numFmtId="46"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,266 +2948,266 @@
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="33">
         <v>42075.4242592593</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="34">
         <v>42075.4242592593</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="8">
         <v>2015</v>
       </c>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="8">
         <v>3</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="25">
         <v>11</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="33">
         <v>42075.424375000002</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="34">
         <v>42075.424375000002</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="9">
         <v>2015</v>
       </c>
-      <c r="X2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="8">
         <v>3</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="8">
         <v>11</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="35">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="8">
         <v>0</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="8">
         <v>0</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="8">
         <v>5</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="8">
         <v>5</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AK2" s="1" t="s">
@@ -841,6 +3216,423 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List10"/>
+  <dimension ref="B1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="24" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="41" style="24" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="8.140625" style="24" customWidth="1"/>
+    <col min="27" max="16384" width="8.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="F12" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="F14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="F15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List11"/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="27" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="8" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+      <c r="G17" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -853,146 +3645,146 @@
       <selection activeCell="AI1" sqref="AI1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
@@ -1002,107 +3794,107 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>14</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>0</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="33">
         <v>42075.4242592593</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="34">
         <v>42075.4242592593</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>2015</v>
       </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="6">
         <v>3</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="25">
         <v>11</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="33">
         <v>42075.4243055556</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="34">
         <v>42075.4243055556</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>2015</v>
       </c>
-      <c r="X2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="X2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="6">
         <v>3</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="6">
         <v>11</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="35">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="6">
         <v>0</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="6">
         <v>0</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="6">
         <v>2</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="6">
         <v>2</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AJ2" s="1" t="s">
@@ -1112,107 +3904,107 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>14</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="33">
         <v>42075.4243055556</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="34">
         <v>42075.4243055556</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>2015</v>
       </c>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="6">
         <v>3</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="25">
         <v>11</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="33">
         <v>42075.424340277801</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="34">
         <v>42075.424340277801</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>2015</v>
       </c>
-      <c r="X3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="5" t="s">
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="6">
         <v>3</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="6">
         <v>11</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="35">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="6">
         <v>0</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="6">
         <v>0</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="6">
         <v>2</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="6">
         <v>2</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AJ3" s="1" t="s">
@@ -1222,107 +4014,107 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>14</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>0</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="33">
         <v>42075.424340277801</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="34">
         <v>42075.424340277801</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>2015</v>
       </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="6">
         <v>3</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="25">
         <v>11</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="33">
         <v>42075.424375000002</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="34">
         <v>42075.424375000002</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>2015</v>
       </c>
-      <c r="X4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="5" t="s">
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="6">
         <v>3</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="6">
         <v>11</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="35">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="6">
         <v>0</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="6">
         <v>0</v>
       </c>
-      <c r="AG4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AG4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AJ4" s="1" t="s">
@@ -1346,30 +4138,30 @@
       <selection activeCell="AI1" sqref="AI1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +4177,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1403,10 +4195,10 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1427,7 +4219,7 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="31" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -1455,7 +4247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1468,7 +4260,7 @@
       <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="35">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1486,10 +4278,10 @@
       <c r="K2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="33">
         <v>42075.424375000002</v>
       </c>
       <c r="N2" s="3">
@@ -1510,7 +4302,7 @@
       <c r="S2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="31">
         <v>11</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -1552,30 +4344,30 @@
       <selection activeCell="AI1" sqref="AI1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +4383,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1609,10 +4401,10 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1633,7 +4425,7 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="31" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -1661,7 +4453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +4469,7 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1695,10 +4487,10 @@
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1719,7 +4511,7 @@
       <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -1761,26 +4553,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="31" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1789,7 +4581,7 @@
     <col min="27" max="28" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +4597,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1823,10 +4615,10 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1847,7 +4639,7 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="31" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -1875,7 +4667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +4683,7 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1909,10 +4701,10 @@
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1933,7 +4725,7 @@
       <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -1964,4 +4756,1213 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List6"/>
+  <dimension ref="B1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="11" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="16" customWidth="1"/>
+    <col min="14" max="26" width="8.140625" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="8.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+  </sheetData>
+  <sheetProtection pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List7"/>
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="16" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+  </sheetData>
+  <sheetProtection pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List8"/>
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="23" customWidth="1"/>
+    <col min="15" max="26" width="8.140625" style="23" customWidth="1"/>
+    <col min="27" max="16384" width="8.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
+        <v>3</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <v>3</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <v>3</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
+        <v>3</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="List9"/>
+  <dimension ref="B1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="21" customWidth="1"/>
+    <col min="15" max="26" width="8.140625" style="21" customWidth="1"/>
+    <col min="27" max="16384" width="8.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
+        <v>3</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <v>3</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <v>3</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
+        <v>3</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>